--- a/va_facility_data_2025-02-20/Freeport VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Freeport%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Freeport VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Freeport%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2d01056844f3409ab8a3bcfb1e0744de"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6ba3c84b9eb94b26b13a1ae752851717"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R41a6343f183b465cb5a027958aaa9630"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R606704ebb3ab4e7db10d738b0fdfd370"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R55c96dd2628845d4b22124e15e2f4ba4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2451ff4f6373456bb5c6b6a245d506ba"/>
   </x:sheets>
 </x:workbook>
 </file>
